--- a/jems-ui/e2e/cypress/fixtures/project/exports/partners-budget/TB-368-v2.xlsx
+++ b/jems-ui/e2e/cypress/fixtures/project/exports/partners-budget/TB-368-v2.xlsx
@@ -6,8 +6,8 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Project_budget_00029_multi-byte" r:id="rId3" sheetId="1"/>
-    <sheet name="Partner_budget_00029_multi-byte" r:id="rId4" sheetId="2"/>
+    <sheet name="Project_budget_00028_solid stat" r:id="rId3" sheetId="1"/>
+    <sheet name="Partner_budget_00028_solid stat" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -417,41 +417,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.5859375" customWidth="true"/>
-    <col min="2" max="2" width="7.60546875" customWidth="true"/>
-    <col min="3" max="3" width="28.578125" customWidth="true"/>
-    <col min="4" max="4" width="50.65234375" customWidth="true"/>
-    <col min="5" max="5" width="39.61328125" customWidth="true"/>
-    <col min="6" max="6" width="20.8515625" customWidth="true"/>
-    <col min="7" max="7" width="23.05859375" customWidth="true"/>
-    <col min="8" max="8" width="24.16015625" customWidth="true"/>
-    <col min="9" max="9" width="19.74609375" customWidth="true"/>
-    <col min="10" max="10" width="19.74609375" customWidth="true"/>
-    <col min="11" max="11" width="44.02734375" customWidth="true"/>
-    <col min="12" max="12" width="48.4453125" customWidth="true"/>
-    <col min="13" max="13" width="36.3046875" customWidth="true"/>
-    <col min="14" max="14" width="38.51171875" customWidth="true"/>
-    <col min="15" max="15" width="40.71875" customWidth="true"/>
-    <col min="16" max="16" width="40.71875" customWidth="true"/>
-    <col min="17" max="17" width="44.02734375" customWidth="true"/>
-    <col min="18" max="18" width="48.4453125" customWidth="true"/>
-    <col min="19" max="19" width="48.4453125" customWidth="true"/>
-    <col min="20" max="20" width="29.6796875" customWidth="true"/>
-    <col min="21" max="21" width="24.16015625" customWidth="true"/>
-    <col min="22" max="22" width="24.16015625" customWidth="true"/>
-    <col min="23" max="23" width="36.3046875" customWidth="true"/>
-    <col min="24" max="24" width="40.71875" customWidth="true"/>
-    <col min="25" max="25" width="40.71875" customWidth="true"/>
-    <col min="26" max="26" width="13.125" customWidth="true"/>
-    <col min="27" max="27" width="9.8125" customWidth="true"/>
-    <col min="28" max="28" width="52.859375" customWidth="true"/>
-    <col min="29" max="29" width="24.16015625" customWidth="true"/>
+    <col min="1" max="1" width="54.39453125" customWidth="true"/>
+    <col min="2" max="2" width="6.8828125" customWidth="true"/>
+    <col min="3" max="3" width="24.93359375" customWidth="true"/>
+    <col min="4" max="4" width="43.20703125" customWidth="true"/>
+    <col min="5" max="5" width="33.82421875" customWidth="true"/>
+    <col min="6" max="6" width="17.76953125" customWidth="true"/>
+    <col min="7" max="7" width="20.1015625" customWidth="true"/>
+    <col min="8" max="8" width="21.26953125" customWidth="true"/>
+    <col min="9" max="9" width="15.06640625" customWidth="true"/>
+    <col min="10" max="10" width="15.10546875" customWidth="true"/>
+    <col min="11" max="11" width="35.64453125" customWidth="true"/>
+    <col min="12" max="12" width="38.75390625" customWidth="true"/>
+    <col min="13" max="13" width="32.1484375" customWidth="true"/>
+    <col min="14" max="14" width="34.015625" customWidth="true"/>
+    <col min="15" max="15" width="35.859375" customWidth="true"/>
+    <col min="16" max="16" width="35.89453125" customWidth="true"/>
+    <col min="17" max="17" width="35.98828125" customWidth="true"/>
+    <col min="18" max="18" width="39.69921875" customWidth="true"/>
+    <col min="19" max="19" width="39.734375" customWidth="true"/>
+    <col min="20" max="20" width="24.59765625" customWidth="true"/>
+    <col min="21" max="21" width="20.72265625" customWidth="true"/>
+    <col min="22" max="22" width="20.7578125" customWidth="true"/>
+    <col min="23" max="23" width="29.65234375" customWidth="true"/>
+    <col min="24" max="24" width="33.36328125" customWidth="true"/>
+    <col min="25" max="25" width="33.3984375" customWidth="true"/>
+    <col min="26" max="26" width="11.58984375" customWidth="true"/>
+    <col min="27" max="27" width="10.66015625" customWidth="true"/>
+    <col min="28" max="28" width="45.81640625" customWidth="true"/>
+    <col min="29" max="29" width="19.921875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>00029 - multi-byte card - V3.0 - 2022/07/20 - 16:08:57</t>
+          <t>00028 - solid state monitor - V2.0 - 2022/12/06 - 14:15:13</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="I5" s="6" t="n">
-        <v>383.33</v>
+        <v>38.33</v>
       </c>
       <c r="J5" s="6" t="n">
         <v>60.0</v>
@@ -631,7 +631,7 @@
         <v>0.0</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>255.56</v>
+        <v>25.56</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>0.0</v>
@@ -640,10 +640,10 @@
         <v>0.0</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>255.56</v>
+        <v>25.56</v>
       </c>
       <c r="S5" s="6" t="n">
-        <v>638.89</v>
+        <v>63.89</v>
       </c>
       <c r="T5" s="7" t="n">
         <v>100.0</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="I6" s="9" t="n">
-        <v>383.33</v>
+        <v>38.33</v>
       </c>
       <c r="J6" s="8" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="O6" s="9" t="n">
-        <v>255.56</v>
+        <v>25.56</v>
       </c>
       <c r="P6" s="9" t="n">
         <v>0.0</v>
@@ -726,10 +726,10 @@
         <v>0.0</v>
       </c>
       <c r="R6" s="9" t="n">
-        <v>255.56</v>
+        <v>25.56</v>
       </c>
       <c r="S6" s="9" t="n">
-        <v>638.89</v>
+        <v>63.89</v>
       </c>
       <c r="T6" s="10" t="n">
         <v>100.0</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="G10" s="6" t="n">
-        <v>555.56</v>
+        <v>55.56</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0.0</v>
@@ -933,13 +933,13 @@
         <v>0.0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>555.56</v>
+        <v>55.56</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>83.33</v>
+        <v>8.33</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>83.33</v>
+        <v>8.33</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>0.0</v>
@@ -990,7 +990,7 @@
         <v>0.0</v>
       </c>
       <c r="AC10" s="7" t="n">
-        <v>638.89</v>
+        <v>63.89</v>
       </c>
     </row>
     <row r="11">
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="G11" s="9" t="n">
-        <v>555.56</v>
+        <v>55.56</v>
       </c>
       <c r="H11" s="9" t="n">
         <v>0.0</v>
@@ -1034,13 +1034,13 @@
         <v>0.0</v>
       </c>
       <c r="J11" s="9" t="n">
-        <v>555.56</v>
+        <v>55.56</v>
       </c>
       <c r="K11" s="9" t="n">
-        <v>83.33</v>
+        <v>8.33</v>
       </c>
       <c r="L11" s="9" t="n">
-        <v>83.33</v>
+        <v>8.33</v>
       </c>
       <c r="M11" s="9" t="n">
         <v>0.0</v>
@@ -1091,7 +1091,7 @@
         <v>0.0</v>
       </c>
       <c r="AC11" s="10" t="n">
-        <v>638.89</v>
+        <v>63.89</v>
       </c>
     </row>
   </sheetData>
@@ -1107,28 +1107,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.5859375" customWidth="true"/>
-    <col min="2" max="2" width="7.60546875" customWidth="true"/>
-    <col min="3" max="3" width="28.578125" customWidth="true"/>
-    <col min="4" max="4" width="50.65234375" customWidth="true"/>
-    <col min="5" max="5" width="39.61328125" customWidth="true"/>
-    <col min="6" max="6" width="20.8515625" customWidth="true"/>
-    <col min="7" max="7" width="23.05859375" customWidth="true"/>
-    <col min="8" max="8" width="24.16015625" customWidth="true"/>
-    <col min="9" max="9" width="48.4453125" customWidth="true"/>
-    <col min="10" max="10" width="20.8515625" customWidth="true"/>
-    <col min="11" max="11" width="13.125" customWidth="true"/>
-    <col min="12" max="12" width="18.64453125" customWidth="true"/>
-    <col min="13" max="13" width="10.91796875" customWidth="true"/>
-    <col min="14" max="14" width="14.2265625" customWidth="true"/>
-    <col min="15" max="15" width="16.43359375" customWidth="true"/>
-    <col min="16" max="16" width="7.60546875" customWidth="true"/>
+    <col min="1" max="1" width="54.39453125" customWidth="true"/>
+    <col min="2" max="2" width="6.8828125" customWidth="true"/>
+    <col min="3" max="3" width="24.93359375" customWidth="true"/>
+    <col min="4" max="4" width="43.20703125" customWidth="true"/>
+    <col min="5" max="5" width="33.82421875" customWidth="true"/>
+    <col min="6" max="6" width="17.76953125" customWidth="true"/>
+    <col min="7" max="7" width="20.1015625" customWidth="true"/>
+    <col min="8" max="8" width="21.26953125" customWidth="true"/>
+    <col min="9" max="9" width="38.75390625" customWidth="true"/>
+    <col min="10" max="10" width="21.453125" customWidth="true"/>
+    <col min="11" max="11" width="11.6015625" customWidth="true"/>
+    <col min="12" max="12" width="24.40625" customWidth="true"/>
+    <col min="13" max="13" width="9.453125" customWidth="true"/>
+    <col min="14" max="14" width="11.55859375" customWidth="true"/>
+    <col min="15" max="15" width="13.30859375" customWidth="true"/>
+    <col min="16" max="16" width="6.2890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>00029 - multi-byte card - V3.0 - 2022/07/20 - 16:08:57</t>
+          <t>00028 - solid state monitor - V2.0 - 2022/12/06 - 14:15:13</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L4" s="5" t="inlineStr">
         <is>
-          <t>Unit cost SC2 EN</t>
+          <t>Unit cost single - Staff EN</t>
         </is>
       </c>
       <c r="M4" s="5" t="inlineStr">
@@ -1289,10 +1289,10 @@
         <v>0.0</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>555.56</v>
+        <v>55.56</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>555.56</v>
+        <v>55.56</v>
       </c>
     </row>
     <row r="5">
@@ -1366,7 +1366,7 @@
         <v>0.0</v>
       </c>
       <c r="P5" s="7" t="n">
-        <v>83.33</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="6">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="P6" s="10" t="n">
-        <v>638.89</v>
+        <v>63.89</v>
       </c>
     </row>
   </sheetData>
